--- a/Excel Basics/connecting_text_columns.xlsx
+++ b/Excel Basics/connecting_text_columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devin\Documents\School\3ITF\Professional Skills\course_excel\Excel Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2190F-0759-4042-8307-CDB7D29D504B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F890DD02-F842-42D5-8125-B8C6933D2DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFA1F36C-61E7-435D-BC7C-4A09451723D9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Last</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Personnel File</t>
+  </si>
+  <si>
+    <t>Full Name</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -239,14 +242,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,13 +271,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>838200</xdr:rowOff>
@@ -636,293 +639,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209B952D-DA6F-4652-BD92-2C96273EF767}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="A8:G17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="39.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="str">
+        <f>CONCATENATE(C6, " ", B6,)</f>
+        <v>John Smith</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G6" s="2">
         <v>10001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H6" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="str">
+        <f t="shared" ref="A7:A15" si="0">CONCATENATE(C7, " ", B7,)</f>
+        <v>Mary Johnson</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G7" s="2">
         <v>90001</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H7" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Robert Williams</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G8" s="2">
         <v>60601</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H8" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Patricia Brown</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G9" s="2">
         <v>77001</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H9" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael Jones</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G10" s="2">
         <v>85001</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H10" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Patricia Smith</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G11" s="2">
         <v>10002</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H11" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Robert Johnson</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G12" s="2">
         <v>90002</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H12" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Mary Williams</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G13" s="2">
         <v>60602</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H13" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>John Brown</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G14" s="2">
         <v>77002</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H14" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael Jones</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G15" s="2">
         <v>85002</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H15" s="3">
         <v>80000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
